--- a/biology/Botanique/Salix_laevigata/Salix_laevigata.xlsx
+++ b/biology/Botanique/Salix_laevigata/Salix_laevigata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix laevigata, le Saule rouge, ((en) : red willow ou polished willow), est une espèce de saule, native du sud-ouest des États-Unis et du nord de Baja California[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix laevigata, le Saule rouge, ((en) : red willow ou polished willow), est une espèce de saule, native du sud-ouest des États-Unis et du nord de Baja California.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Saule rouge est un arbuste pouvant atteindre 1,30 m de haut. Comme la plupart des saules, il pousse sur les rives des cours d'eau et plus généralement dans des secteurs où l'humidité est importante[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Saule rouge est un arbuste pouvant atteindre 1,30 m de haut. Comme la plupart des saules, il pousse sur les rives des cours d'eau et plus généralement dans des secteurs où l'humidité est importante.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbuste se rencontre le long de la Baja California et au nord de la Californie jusqu'à Cap Mendocino. Il apparait également à l'est de la Vallée de San Joaquin sur les collines de l'ouest de la Sierra Nevada. Il n'est pas présent dans la Central Valley[2].
-De petites populations sont citées en Oregon, dans le Nevada, et au Nouveau-Mexique. En Arizona, il peut être rencontré dans la zone de transition du Rim de Mogollon et au centre du Grand Canyon. Sa distribution s'étend vers le Virgin River canyon, du sud-ouest de l'Utah[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbuste se rencontre le long de la Baja California et au nord de la Californie jusqu'à Cap Mendocino. Il apparait également à l'est de la Vallée de San Joaquin sur les collines de l'ouest de la Sierra Nevada. Il n'est pas présent dans la Central Valley.
+De petites populations sont citées en Oregon, dans le Nevada, et au Nouveau-Mexique. En Arizona, il peut être rencontré dans la zone de transition du Rim de Mogollon et au centre du Grand Canyon. Sa distribution s'étend vers le Virgin River canyon, du sud-ouest de l'Utah.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Ethnobotanique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Kutenai appelait le "Saule rouge" mukwuʔk, et on l'utilisait en vannerie[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Kutenai appelait le "Saule rouge" mukwuʔk, et on l'utilisait en vannerie.
 </t>
         </is>
       </c>
